--- a/F_dataset/ChEMBL/CHK1/CHK1_preprocessing/CHK1_g1.xlsx
+++ b/F_dataset/ChEMBL/CHK1/CHK1_preprocessing/CHK1_g1.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254084903C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691E94430&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076773E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073370&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910733E0&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076774C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073450&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910734C0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076775A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073530&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910735A0&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073610&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076776F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073680&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076777D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910737D0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073840&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076778B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910738B0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073920&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073990&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073A00&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073A70&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073AE0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073B50&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073BC0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073C30&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073CA0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073D10&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073D80&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073DF0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073E60&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073ED0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000025407677760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000017691073F40&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3779,7 +3779,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910736F0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C77D0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7E60&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7290&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7140&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7BC0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C6EA0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C6810&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C6D50&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C6C00&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7F40&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7ED0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7DF0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7D80&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7D10&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7CA0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7C30&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7B50&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7AE0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7A70&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076DB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7A00&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6194,7 +6194,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7990&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000254076D9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000176910C7920&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
